--- a/貼り付け用.xlsx
+++ b/貼り付け用.xlsx
@@ -9,43 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="妥当性確認機能" sheetId="25" r:id="rId1"/>
-    <sheet name="データマート作成全体像" sheetId="22" r:id="rId2"/>
-    <sheet name="患者情報データマート" sheetId="21" r:id="rId3"/>
-    <sheet name="アプリ処理" sheetId="20" r:id="rId4"/>
-    <sheet name="MML取込機能概要" sheetId="14" r:id="rId5"/>
-    <sheet name="MML取込機能" sheetId="23" r:id="rId6"/>
-    <sheet name="案件対応データフロー" sheetId="15" r:id="rId7"/>
-    <sheet name="テーブル状態遷移" sheetId="24" r:id="rId8"/>
+    <sheet name="データ" sheetId="26" r:id="rId1"/>
+    <sheet name="妥当性確認機能" sheetId="25" r:id="rId2"/>
+    <sheet name="データマート作成全体像" sheetId="22" r:id="rId3"/>
+    <sheet name="患者情報データマート" sheetId="21" r:id="rId4"/>
+    <sheet name="アプリ処理" sheetId="20" r:id="rId5"/>
+    <sheet name="MML取込機能概要" sheetId="14" r:id="rId6"/>
+    <sheet name="MML取込機能" sheetId="23" r:id="rId7"/>
+    <sheet name="案件対応データフロー" sheetId="15" r:id="rId8"/>
+    <sheet name="テーブル状態遷移" sheetId="24" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="イベントID一覧" localSheetId="5">#REF!</definedName>
-    <definedName name="イベントID一覧" localSheetId="7">#REF!</definedName>
-    <definedName name="イベントID一覧" localSheetId="0">#REF!</definedName>
-    <definedName name="イベントID一覧">#REF!</definedName>
-    <definedName name="インクルードファイル" localSheetId="5">'[1]画面定義書（画面定義）'!#REF!</definedName>
-    <definedName name="インクルードファイル" localSheetId="7">'[1]画面定義書（画面定義）'!#REF!</definedName>
-    <definedName name="インクルードファイル" localSheetId="0">'[1]画面定義書（画面定義）'!#REF!</definedName>
-    <definedName name="インクルードファイル">'[1]画面定義書（画面定義）'!#REF!</definedName>
-    <definedName name="サーバ処理一覧" localSheetId="5">#REF!</definedName>
-    <definedName name="サーバ処理一覧" localSheetId="7">#REF!</definedName>
-    <definedName name="サーバ処理一覧" localSheetId="0">#REF!</definedName>
-    <definedName name="サーバ処理一覧">#REF!</definedName>
-    <definedName name="メインファイル" localSheetId="5">'[1]画面定義書（画面定義）'!#REF!</definedName>
-    <definedName name="メインファイル" localSheetId="7">'[1]画面定義書（画面定義）'!#REF!</definedName>
-    <definedName name="メインファイル" localSheetId="0">'[1]画面定義書（画面定義）'!#REF!</definedName>
-    <definedName name="メインファイル">'[1]画面定義書（画面定義）'!#REF!</definedName>
-    <definedName name="画面ID">'[1]画面定義書（画面定義）'!$D$3</definedName>
-    <definedName name="画面名">'[1]画面定義書（画面定義）'!$D$4</definedName>
-    <definedName name="凡例">'[2]画面一覧（サンプル）'!$A$30:$A$32</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -56,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="23">
   <si>
     <t>MML取込機能概要</t>
     <rPh sb="3" eb="5">
@@ -161,6 +137,77 @@
   </si>
   <si>
     <t>ステータスフラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設ID</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ識別番号</t>
+    <rPh sb="3" eb="7">
+      <t>シキベツバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設名</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖マリア病院</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ビョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖マリアヘルスケアセンタ</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紐付けID</t>
+    <rPh sb="0" eb="2">
+      <t>ヒモヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルテ番号等</t>
+    <rPh sb="3" eb="6">
+      <t>バンゴウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1002-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -285,7 +332,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,6 +365,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -34135,71 +34185,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="画面定義書（画面定義）"/>
-      <sheetName val="画面定義書（入力チェック定義）"/>
-      <sheetName val="画面定義書（画面状態定義）"/>
-      <sheetName val="画面仕様書Config"/>
-      <sheetName val="※項目"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="3">
-          <cell r="D3" t="str">
-            <v>SC_A01_01</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4" t="str">
-            <v>ツアー検索画面</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="タイトル"/>
-      <sheetName val="画面一覧（サンプル）"/>
-      <sheetName val="画面一覧（様式)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>○</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>△</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>×</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34465,12 +34450,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F3:O16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="4.625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="4.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="3"/>
+    <col min="12" max="12" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F5" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1001</v>
+      </c>
+      <c r="L5" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="11">
+        <v>1001</v>
+      </c>
+      <c r="O5" s="11">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="6" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F6" s="11">
+        <v>400000002</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1002</v>
+      </c>
+      <c r="I6" s="11">
+        <v>1002</v>
+      </c>
+      <c r="L6" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="11">
+        <v>1002</v>
+      </c>
+      <c r="O6" s="11">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F10" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1001</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1001</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F11" s="11">
+        <v>400000002</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1002</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1002</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F15" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1001</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1001</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F16" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1002</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="11">
+        <v>400000001</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1002</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="I15:I16" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -34486,15 +34743,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44:AL61"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -34509,7 +34766,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -34532,7 +34789,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -34561,7 +34818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -34590,7 +34847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -34613,7 +34870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -34644,7 +34901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q35"/>
   <sheetViews>
